--- a/Test Data/FC_Gallery_Miscellaneous_FC_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_Miscellaneous_FC_Series_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A6BE67-7D02-41EE-A2E9-9779A7BD8CD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6A9355-3D4C-408E-9EC4-E89FBA7DCFA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="18" r:id="rId1"/>
@@ -505,7 +505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A362AD78-2609-4251-BA5E-942B46BF853E}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -607,7 +607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE33AAF6-8844-4EC4-B584-D2A4E6E2065C}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/Test Data/FC_Gallery_Miscellaneous_FC_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_Miscellaneous_FC_Series_Panels.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6A9355-3D4C-408E-9EC4-E89FBA7DCFA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AD2A91-0FDA-40BA-B929-A3458EED5F6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="18" r:id="rId1"/>
     <sheet name="Belgium" sheetId="14" r:id="rId2"/>
+    <sheet name="Denmark" sheetId="19" r:id="rId3"/>
+    <sheet name="Sweden" sheetId="20" r:id="rId4"/>
+    <sheet name="Norway" sheetId="21" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="22">
   <si>
     <t>Wg</t>
   </si>
@@ -82,6 +85,24 @@
   </si>
   <si>
     <t>NGC-3463/T1193/T1194/T1212</t>
+  </si>
+  <si>
+    <t>Denmark Market</t>
+  </si>
+  <si>
+    <t>NGC-3446/T2004/T2005</t>
+  </si>
+  <si>
+    <t>Sweden Market</t>
+  </si>
+  <si>
+    <t>NGC-3465/T2025/T2023</t>
+  </si>
+  <si>
+    <t>Norway Market</t>
+  </si>
+  <si>
+    <t>NGC-3464/T1919</t>
   </si>
 </sst>
 </file>
@@ -607,7 +628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE33AAF6-8844-4EC4-B584-D2A4E6E2065C}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -703,4 +724,310 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC382CBE-F923-4E23-8C52-7E658E82F766}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375C0636-BE54-4186-99BA-214DAC66A675}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8E4C71-6414-4A96-B0DA-58FD99427FA0}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/FC_Gallery_Miscellaneous_FC_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_Miscellaneous_FC_Series_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AD2A91-0FDA-40BA-B929-A3458EED5F6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DD8590-D481-419D-8798-686D0CFC93B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="18" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Denmark" sheetId="19" r:id="rId3"/>
     <sheet name="Sweden" sheetId="20" r:id="rId4"/>
     <sheet name="Norway" sheetId="21" r:id="rId5"/>
+    <sheet name="Italy" sheetId="22" r:id="rId6"/>
+    <sheet name="Spain" sheetId="23" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="26">
   <si>
     <t>Wg</t>
   </si>
@@ -103,6 +105,18 @@
   </si>
   <si>
     <t>NGC-3464/T1919</t>
+  </si>
+  <si>
+    <t>Italy Market</t>
+  </si>
+  <si>
+    <t>Spain Market</t>
+  </si>
+  <si>
+    <t>NGC-3442/T2128/T2127/T2129</t>
+  </si>
+  <si>
+    <t>NGC-3443/T1967/T1968/1971/T1927/T1945/T1959</t>
   </si>
 </sst>
 </file>
@@ -934,7 +948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8E4C71-6414-4A96-B0DA-58FD99427FA0}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
@@ -1030,4 +1044,208 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2C943D-4C63-45D7-86F6-AAE2C1C2A4E9}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E8672F5-0922-4A74-99EB-51761ADFE893}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/FC_Gallery_Miscellaneous_FC_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_Miscellaneous_FC_Series_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DD8590-D481-419D-8798-686D0CFC93B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E76730-CDDC-4043-B03C-BD67CA9164D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="18" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="Norway" sheetId="21" r:id="rId5"/>
     <sheet name="Italy" sheetId="22" r:id="rId6"/>
     <sheet name="Spain" sheetId="23" r:id="rId7"/>
+    <sheet name="Romania" sheetId="24" r:id="rId8"/>
+    <sheet name="Slovakia" sheetId="25" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="30">
   <si>
     <t>Wg</t>
   </si>
@@ -117,6 +119,18 @@
   </si>
   <si>
     <t>NGC-3443/T1967/T1968/1971/T1927/T1945/T1959</t>
+  </si>
+  <si>
+    <t>Romania Market</t>
+  </si>
+  <si>
+    <t>Slovakia Market</t>
+  </si>
+  <si>
+    <t>NGC-4307/T3536/T3543</t>
+  </si>
+  <si>
+    <t>NGC-4306/T3562/T3575</t>
   </si>
 </sst>
 </file>
@@ -643,7 +657,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1050,7 +1064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2C943D-4C63-45D7-86F6-AAE2C1C2A4E9}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1248,4 +1262,208 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85003E7C-B5DC-4022-A6B9-9ACD605FAFC4}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C530A51B-3FBA-4A02-8B69-5415A01A6EE9}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/FC_Gallery_Miscellaneous_FC_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_Miscellaneous_FC_Series_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E76730-CDDC-4043-B03C-BD67CA9164D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFF6797-E67B-4BC2-B099-BE7FBCA02836}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="18" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Spain" sheetId="23" r:id="rId7"/>
     <sheet name="Romania" sheetId="24" r:id="rId8"/>
     <sheet name="Slovakia" sheetId="25" r:id="rId9"/>
+    <sheet name="Hungary" sheetId="26" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="32">
   <si>
     <t>Wg</t>
   </si>
@@ -131,6 +132,12 @@
   </si>
   <si>
     <t>NGC-4306/T3562/T3575</t>
+  </si>
+  <si>
+    <t>Hungary Market</t>
+  </si>
+  <si>
+    <t>NGC-4308/T3593/T3618/T3592/T3617/T3594/T3619</t>
   </si>
 </sst>
 </file>
@@ -652,6 +659,108 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B450A02-22CE-458D-BCBE-CF5B660101B2}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE33AAF6-8844-4EC4-B584-D2A4E6E2065C}">
   <dimension ref="A1:D11"/>
@@ -1370,8 +1479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C530A51B-3FBA-4A02-8B69-5415A01A6EE9}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test Data/FC_Gallery_Miscellaneous_FC_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_Miscellaneous_FC_Series_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFF6797-E67B-4BC2-B099-BE7FBCA02836}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAB7D24-F2E0-4F73-915C-45330AD5E67B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="18" r:id="rId1"/>
@@ -89,9 +89,6 @@
     <t>NGC-3445/T1627/T2140/T1631/1649/T1657/T1658/T2141/T2143</t>
   </si>
   <si>
-    <t>NGC-3463/T1193/T1194/T1212</t>
-  </si>
-  <si>
     <t>Denmark Market</t>
   </si>
   <si>
@@ -138,6 +135,9 @@
   </si>
   <si>
     <t>NGC-4308/T3593/T3618/T3592/T3617/T3594/T3619</t>
+  </si>
+  <si>
+    <t>NGC-3003/T1235/T1239/T1245/ T1237/T1244/T1252/T3834/T3835</t>
   </si>
 </sst>
 </file>
@@ -561,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A362AD78-2609-4251-BA5E-942B46BF853E}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -603,12 +603,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -663,7 +663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B450A02-22CE-458D-BCBE-CF5B660101B2}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -688,7 +688,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -710,7 +710,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -892,7 +892,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -914,7 +914,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -994,7 +994,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -1016,7 +1016,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1096,7 +1096,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -1118,7 +1118,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1198,7 +1198,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -1220,7 +1220,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1300,7 +1300,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -1322,7 +1322,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1402,7 +1402,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -1424,7 +1424,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1504,7 +1504,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -1526,7 +1526,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
